--- a/Dự Án/BÁO GIÁ/Báo Giá DingTea.xlsx
+++ b/Dự Án/BÁO GIÁ/Báo Giá DingTea.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hathienvan/Documents/JetArt/JETART/Dự Án/BÁO GIÁ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2254C97-AFD3-A541-BDFA-AA719E213FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F25758-57C3-034D-ABF4-F6DA11B68A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo Giá Tháng 11" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
   <si>
     <r>
       <t xml:space="preserve">Khách hàng:    </t>
@@ -317,6 +317,66 @@
   </si>
   <si>
     <t xml:space="preserve">Poster 3 món  </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Banner Đồ Nóng (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Banner Mùa Thu  (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>/Bộ</t>
+  </si>
+  <si>
+    <t>Dingtea Chesee (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tờ rơi Black Tea </t>
+  </si>
+  <si>
+    <t>Tờ rơi Tasmine Green Tea</t>
+  </si>
+  <si>
+    <t>Tờ rơi Ding Tea</t>
+  </si>
+  <si>
+    <t>Tờ rơi Oolong Tea</t>
+  </si>
+  <si>
+    <t>Hokkaido Milk Tea (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Passion Fruit Green Tea(A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Bubble Milk Tea (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Pudding Milk Tea (A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Strawberry Milk Tea(A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Cream Mousse Green Tea(A4, A3, Tivi 32 in, Tivi 40 in)</t>
+  </si>
+  <si>
+    <t>Đang thực hiện</t>
   </si>
 </sst>
 </file>
@@ -749,7 +809,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -860,12 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,6 +1045,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,24 +1082,6 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1065,15 +1110,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>16016</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2632216</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1102,7 +1147,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11696700" y="76200"/>
+          <a:off x="12585700" y="152400"/>
           <a:ext cx="1451116" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1488,20 +1533,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D3E6D-14C8-F747-A5B7-B0904D5DF7F2}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1587,12 +1632,12 @@
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1650,21 +1695,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="80"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="79"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1672,24 +1717,24 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-    </row>
-    <row r="17" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="94" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+    </row>
+    <row r="17" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1700,375 +1745,622 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" s="48" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:7" s="46" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C20" s="30">
         <v>2000000</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>1</v>
       </c>
       <c r="F20" s="33">
         <f>E20*C20</f>
         <v>2000000</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="33">
         <v>2000000</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="55">
         <v>1</v>
       </c>
       <c r="F21" s="38">
         <f>E21*C21</f>
         <v>2000000</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="93" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="38">
         <v>1000000</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="55">
         <v>1</v>
       </c>
       <c r="F22" s="38">
         <f>E22*C22</f>
         <v>1000000</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="93" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="38">
         <v>1000000</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="55">
         <v>1</v>
       </c>
       <c r="F23" s="38">
         <f>C23</f>
         <v>1000000</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="93" t="s">
         <v>84</v>
       </c>
       <c r="C24" s="38">
         <v>700000</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="55">
         <v>1</v>
       </c>
       <c r="F24" s="38">
         <v>700000</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="93" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="38">
         <v>700000</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="55">
         <v>1</v>
       </c>
       <c r="F25" s="38">
         <f>C25</f>
         <v>700000</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="53">
         <v>1</v>
       </c>
       <c r="F26" s="38">
         <v>0</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="B27" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="41">
+        <v>1500000</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="53">
+        <v>1</v>
+      </c>
+      <c r="F27" s="41">
+        <f>E27*C27</f>
+        <v>1500000</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="42"/>
+      <c r="B28" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="53">
+        <v>3</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" ref="F28:F39" si="0">E28*C28</f>
+        <v>3000000</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="105"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="53">
+        <v>1</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="42"/>
+      <c r="B30" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="53">
+        <v>1</v>
+      </c>
+      <c r="F30" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="53">
+        <v>1</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="105"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="39"/>
+      <c r="B32" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="53">
+        <v>1</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="53">
+        <v>1</v>
+      </c>
+      <c r="F33" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="107"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" s="48" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+      <c r="B34" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="53">
+        <v>1</v>
+      </c>
+      <c r="F34" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="38">
+        <v>1000000</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="53">
+        <v>1</v>
+      </c>
+      <c r="F35" s="41">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="53">
+        <v>1</v>
+      </c>
+      <c r="F36" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="53">
+        <v>1</v>
+      </c>
+      <c r="F37" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="53">
+        <v>1</v>
+      </c>
+      <c r="F38" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="53">
+        <v>1</v>
+      </c>
+      <c r="F39" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="50">
-        <f>SUM(F20:F34)</f>
-        <v>7400000</v>
-      </c>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
-    </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="85" t="s">
+      <c r="B40" s="99"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="73">
+        <f>SUM(F20:F39)</f>
+        <v>18900000</v>
+      </c>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="82"/>
+    </row>
+    <row r="43" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B43" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-    </row>
-    <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="82"/>
-      <c r="B39" s="100" t="s">
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+    </row>
+    <row r="44" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="80"/>
+      <c r="B44" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-    </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="86"/>
-      <c r="B40" s="87" t="s">
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+    </row>
+    <row r="45" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="84"/>
+      <c r="B45" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
-    </row>
-    <row r="41" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="90" t="s">
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+    </row>
+    <row r="46" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="92" t="s">
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="91"/>
-    </row>
-    <row r="42" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="93" t="s">
+      <c r="G46" s="89"/>
+    </row>
+    <row r="47" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-    </row>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+    </row>
+    <row r="49" spans="1:7" s="46" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -2083,8 +2375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A30"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2589,12 +2881,12 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -2652,21 +2944,21 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="79"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="80"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2682,16 +2974,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="52" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="94" t="s">
+    <row r="15" spans="1:7" s="50" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="97"/>
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
@@ -2701,26 +2993,26 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" s="53" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:7" s="51" customFormat="1" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="45" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2734,10 +3026,10 @@
       <c r="C18" s="30">
         <v>2000000</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <v>1</v>
       </c>
       <c r="F18" s="33">
@@ -2757,10 +3049,10 @@
       <c r="C19" s="38">
         <v>2000000</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="55">
         <v>1</v>
       </c>
       <c r="F19" s="38">
@@ -2780,10 +3072,10 @@
       <c r="C20" s="38">
         <v>2000000</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="55">
         <v>1</v>
       </c>
       <c r="F20" s="38">
@@ -2803,10 +3095,10 @@
       <c r="C21" s="38">
         <v>2000000</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="55">
         <v>1</v>
       </c>
       <c r="F21" s="38">
@@ -2826,10 +3118,10 @@
       <c r="C22" s="38">
         <v>2000000</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="55">
         <v>1</v>
       </c>
       <c r="F22" s="38">
@@ -2849,10 +3141,10 @@
       <c r="C23" s="33">
         <v>2000000</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="55">
         <v>1</v>
       </c>
       <c r="F23" s="33">
@@ -2872,10 +3164,10 @@
       <c r="C24" s="38">
         <v>2000000</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <v>1</v>
       </c>
       <c r="F24" s="38">
@@ -2895,10 +3187,10 @@
       <c r="C25" s="38">
         <v>1500000</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="55">
         <v>1</v>
       </c>
       <c r="F25" s="38">
@@ -2918,10 +3210,10 @@
       <c r="C26" s="38">
         <v>1000000</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="55">
         <v>1</v>
       </c>
       <c r="F26" s="38">
@@ -2941,10 +3233,10 @@
       <c r="C27" s="33">
         <v>1000000</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="57">
         <v>1</v>
       </c>
       <c r="F27" s="33">
@@ -2964,10 +3256,10 @@
       <c r="C28" s="38">
         <v>700000</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="57">
         <v>1</v>
       </c>
       <c r="F28" s="38">
@@ -2987,10 +3279,10 @@
       <c r="C29" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="57">
         <v>1</v>
       </c>
       <c r="F29" s="41">
@@ -3010,10 +3302,10 @@
       <c r="C30" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="57">
         <v>1</v>
       </c>
       <c r="F30" s="38">
@@ -3023,19 +3315,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="53" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
+    <row r="31" spans="1:7" s="51" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="50">
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="48">
         <f>SUM(F18:F30)</f>
         <v>18700000</v>
       </c>
-      <c r="G31" s="51"/>
+      <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:7" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3051,25 +3343,25 @@
       <c r="A34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
     </row>
     <row r="35" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
     </row>
     <row r="36" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
@@ -3234,7 +3526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ECB859-0BEF-6A42-A26F-A06EBE293F46}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3323,12 +3615,12 @@
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -3386,21 +3678,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="79"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="80"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="79"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3416,16 +3708,16 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" s="49" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="94" t="s">
+    <row r="16" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -3436,58 +3728,58 @@
       <c r="F17" s="12"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" s="48" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+    <row r="18" spans="1:7" s="46" customFormat="1" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="45" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="66">
+      <c r="C19" s="64">
         <v>10000000</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="68">
-        <v>1</v>
-      </c>
-      <c r="F19" s="69">
+      <c r="E19" s="66">
+        <v>1</v>
+      </c>
+      <c r="F19" s="67">
         <f>C19*E19</f>
         <v>10000000</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="38">
@@ -3499,7 +3791,7 @@
       <c r="E20" s="37">
         <v>4</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="59">
         <f t="shared" ref="F20:F25" si="0">C20*E20</f>
         <v>4000000</v>
       </c>
@@ -3508,30 +3800,30 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="69">
         <v>3000000</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="73">
-        <v>1</v>
-      </c>
-      <c r="F21" s="71">
+      <c r="E21" s="71">
+        <v>1</v>
+      </c>
+      <c r="F21" s="69">
         <v>3000000</v>
       </c>
-      <c r="G21" s="74" t="s">
+      <c r="G21" s="72" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="58" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="29" t="s">
@@ -3546,7 +3838,7 @@
       <c r="E22" s="32">
         <v>1</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="59">
         <f>C22*E22</f>
         <v>1500000</v>
       </c>
@@ -3555,7 +3847,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="58" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -3570,16 +3862,16 @@
       <c r="E23" s="32">
         <v>1</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="59">
         <f t="shared" ref="F23" si="1">C23*E23</f>
         <v>1000000</v>
       </c>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="62" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="29" t="s">
@@ -3594,7 +3886,7 @@
       <c r="E24" s="32">
         <v>1</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F24" s="59">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
@@ -3603,7 +3895,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="58" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="35" t="s">
@@ -3618,7 +3910,7 @@
       <c r="E25" s="37">
         <v>1</v>
       </c>
-      <c r="F25" s="61">
+      <c r="F25" s="59">
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
@@ -3627,7 +3919,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="58" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="35" t="s">
@@ -3642,26 +3934,26 @@
       <c r="E26" s="37">
         <v>1</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="61">
         <v>0</v>
       </c>
       <c r="G26" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="48" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97" t="s">
+    <row r="27" spans="1:7" s="46" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="75">
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="73">
         <f>SUM(F19:F26)</f>
         <v>20900000</v>
       </c>
-      <c r="G27" s="76"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
@@ -3676,25 +3968,25 @@
       <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
-      <c r="B30" s="101" t="s">
+      <c r="B30" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>

--- a/Dự Án/BÁO GIÁ/Báo Giá DingTea.xlsx
+++ b/Dự Án/BÁO GIÁ/Báo Giá DingTea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/van/Documents/Hành chính Jet Art/JETART/Dự Án/BÁO GIÁ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F25758-57C3-034D-ABF4-F6DA11B68A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C35F4F-A969-2544-A48C-01C9631C41E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="108">
   <si>
     <r>
       <t xml:space="preserve">Khách hàng:    </t>
@@ -346,18 +346,6 @@
     <t>Dingtea Chesee (A4, A3, Tivi 32 in, Tivi 40 in)</t>
   </si>
   <si>
-    <t xml:space="preserve">Tờ rơi Black Tea </t>
-  </si>
-  <si>
-    <t>Tờ rơi Tasmine Green Tea</t>
-  </si>
-  <si>
-    <t>Tờ rơi Ding Tea</t>
-  </si>
-  <si>
-    <t>Tờ rơi Oolong Tea</t>
-  </si>
-  <si>
     <t>Hokkaido Milk Tea (A4, A3, Tivi 32 in, Tivi 40 in)</t>
   </si>
   <si>
@@ -376,7 +364,16 @@
     <t>Cream Mousse Green Tea(A4, A3, Tivi 32 in, Tivi 40 in)</t>
   </si>
   <si>
-    <t>Đang thực hiện</t>
+    <t>Tờ rơi Black Tea (2 mặt)</t>
+  </si>
+  <si>
+    <t>Tờ rơi Tasmine Green Tea (2 mặt)</t>
+  </si>
+  <si>
+    <t>Tờ rơi Ding Tea (2 mặt)</t>
+  </si>
+  <si>
+    <t>Tờ rơi Oolong Tea (2 mặt)</t>
   </si>
 </sst>
 </file>
@@ -1069,6 +1066,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -1080,9 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1535,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D3E6D-14C8-F747-A5B7-B0904D5DF7F2}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1987,7 +1984,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="94" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C29" s="38">
         <v>1000000</v>
@@ -2011,7 +2008,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="94" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C30" s="38">
         <v>1000000</v>
@@ -2035,7 +2032,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="94" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="38">
         <v>1000000</v>
@@ -2059,7 +2056,7 @@
         <v>71</v>
       </c>
       <c r="B32" s="94" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C32" s="38">
         <v>1000000</v>
@@ -2083,7 +2080,7 @@
         <v>85</v>
       </c>
       <c r="B33" s="94" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C33" s="38">
         <v>1000000</v>
@@ -2107,7 +2104,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="94" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C34" s="38">
         <v>1000000</v>
@@ -2155,9 +2152,11 @@
         <v>90</v>
       </c>
       <c r="B36" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="38"/>
+        <v>104</v>
+      </c>
+      <c r="C36" s="38">
+        <v>1000000</v>
+      </c>
       <c r="D36" s="52" t="s">
         <v>80</v>
       </c>
@@ -2166,10 +2165,10 @@
       </c>
       <c r="F36" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>108</v>
+        <v>1000000</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2177,9 +2176,11 @@
         <v>91</v>
       </c>
       <c r="B37" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="38"/>
+        <v>105</v>
+      </c>
+      <c r="C37" s="38">
+        <v>1000000</v>
+      </c>
       <c r="D37" s="52" t="s">
         <v>80</v>
       </c>
@@ -2188,10 +2189,10 @@
       </c>
       <c r="F37" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>108</v>
+        <v>1000000</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,9 +2200,11 @@
         <v>92</v>
       </c>
       <c r="B38" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="38"/>
+        <v>106</v>
+      </c>
+      <c r="C38" s="38">
+        <v>1000000</v>
+      </c>
       <c r="D38" s="52" t="s">
         <v>80</v>
       </c>
@@ -2210,10 +2213,10 @@
       </c>
       <c r="F38" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>108</v>
+        <v>1000000</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2221,9 +2224,11 @@
         <v>93</v>
       </c>
       <c r="B39" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="C39" s="38">
+        <v>1000000</v>
+      </c>
       <c r="D39" s="52" t="s">
         <v>80</v>
       </c>
@@ -2232,10 +2237,10 @@
       </c>
       <c r="F39" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="39" t="s">
-        <v>108</v>
+        <v>1000000</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2245,10 +2250,10 @@
       <c r="B40" s="99"/>
       <c r="C40" s="99"/>
       <c r="D40" s="99"/>
-      <c r="E40" s="104"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="73">
         <f>SUM(F20:F39)</f>
-        <v>18900000</v>
+        <v>22900000</v>
       </c>
       <c r="G40" s="74"/>
     </row>
@@ -2274,25 +2279,25 @@
       <c r="A43" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
     </row>
     <row r="44" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="80"/>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
     </row>
     <row r="45" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="84"/>
@@ -2375,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3343,25 +3348,25 @@
       <c r="A34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="103" t="s">
+      <c r="B34" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
     </row>
     <row r="35" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="16"/>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
     </row>
     <row r="36" spans="1:7" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
@@ -3948,7 +3953,7 @@
       <c r="B27" s="99"/>
       <c r="C27" s="99"/>
       <c r="D27" s="99"/>
-      <c r="E27" s="104"/>
+      <c r="E27" s="100"/>
       <c r="F27" s="73">
         <f>SUM(F19:F26)</f>
         <v>20900000</v>
@@ -3968,25 +3973,25 @@
       <c r="A29" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
